--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS144-001 until DPLKKPS144-002 - Kepesertaan - Proses - Verifikasi Split Balance.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS144-001 until DPLKKPS144-002 - Kepesertaan - Proses - Verifikasi Split Balance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK_Merge\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CB525-64E1-43FE-9BA3-A17BA8929205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5266B6-3D9A-4349-B2BD-F518BA32A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS144-001" sheetId="4" r:id="rId1"/>
@@ -140,23 +140,23 @@
     <t>DPLKKPS144-002</t>
   </si>
   <si>
-    <t>M11220800000011</t>
+    <t>M11220800000027</t>
+  </si>
+  <si>
+    <t>M11220800000030</t>
   </si>
   <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No. Register : M11220800000011;
-Saldo Nominal Final - Saldo Awal Iuran Pribadi : 2.000.000,00;
-Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.600.000,00;
+No. Register : M11220800000030;
+Saldo Nominal Final - Saldo Awal Iuran Pribadi : 600.000,00;
+Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.000.000,00;
 Saldo Nominal Final - Saldo Awal Iuran Sukarela : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Karyawan : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Perusahaan : 0,00;
-Status Verifikasi : 1 : Setuju;
-Keterangan Verifikasi : KEP.TRX.445 Disetujui</t>
-  </si>
-  <si>
-    <t>M11220800000027</t>
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan Verifikasi : KEP.TRX.445 Data dikembalikan</t>
   </si>
   <si>
     <t>Username : 30711;
@@ -168,8 +168,8 @@
 Saldo Nominal Final - Saldo Awal Iuran Sukarela : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Karyawan : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Perusahaan : 0,00;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan Verifikasi : KEP.TRX.445 Data dikembalikan</t>
+Status Verifikasi : 1 : Setuju;
+Keterangan Verifikasi : KEP.TRX.445 Disetujui</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3">
         <v>30711</v>
@@ -704,13 +704,13 @@
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="9">
-        <v>308000</v>
+        <v>600000</v>
       </c>
       <c r="P2" s="9">
-        <v>1292000</v>
+        <v>1000000</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3">
         <v>30711</v>
@@ -908,10 +908,10 @@
         <v>39</v>
       </c>
       <c r="O2" s="9">
-        <v>2000000</v>
+        <v>308000</v>
       </c>
       <c r="P2" s="9">
-        <v>1600000</v>
+        <v>1292000</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
